--- a/xl/ИИТ_1к_20-21_весна.xlsx
+++ b/xl/ИИТ_1к_20-21_весна.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15263" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15261" uniqueCount="980">
   <si>
     <t>День недели</t>
   </si>
@@ -5650,7 +5650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="634">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7468,6 +7468,9 @@
     <xf numFmtId="49" fontId="28" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7704,10 +7707,10 @@
   <dimension ref="A1:PD91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="EL10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="DZ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EL1" sqref="EL1:EX1"/>
+      <selection pane="bottomRight" activeCell="EF1" sqref="EF1:EI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -19272,8 +19275,8 @@
         <v>201</v>
       </c>
       <c r="EE13" s="103"/>
-      <c r="EF13" s="510" t="s">
-        <v>738</v>
+      <c r="EF13" s="548" t="s">
+        <v>976</v>
       </c>
       <c r="EG13" s="319" t="s">
         <v>152</v>
@@ -20642,8 +20645,8 @@
         <v>201</v>
       </c>
       <c r="EE15" s="153"/>
-      <c r="EF15" s="517" t="s">
-        <v>738</v>
+      <c r="EF15" s="633" t="s">
+        <v>976</v>
       </c>
       <c r="EG15" s="323" t="s">
         <v>152</v>
@@ -45639,9 +45642,7 @@
       <c r="JP44" s="163"/>
       <c r="JQ44" s="208"/>
       <c r="JR44" s="119"/>
-      <c r="JS44" s="103" t="s">
-        <v>409</v>
-      </c>
+      <c r="JS44" s="103"/>
       <c r="JT44" s="167"/>
       <c r="JU44" s="588"/>
       <c r="JV44" s="576">
@@ -47433,9 +47434,7 @@
       <c r="JP46" s="163"/>
       <c r="JQ46" s="208"/>
       <c r="JR46" s="119"/>
-      <c r="JS46" s="103" t="s">
-        <v>409</v>
-      </c>
+      <c r="JS46" s="103"/>
       <c r="JT46" s="167"/>
       <c r="JU46" s="588"/>
       <c r="JV46" s="576">
